--- a/Series de Tiempo/datos/emae.xlsx
+++ b/Series de Tiempo/datos/emae.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>indice_tiempo</t>
-  </si>
-  <si>
     <t>indice_serie_original</t>
   </si>
   <si>
@@ -26,6 +23,9 @@
   </si>
   <si>
     <t>indice_serie_tendencia_ciclo</t>
+  </si>
+  <si>
+    <t>indice_tiempo</t>
   </si>
 </sst>
 </file>
@@ -92,7 +92,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,13 +389,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,3186 +408,2622 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>37987</v>
       </c>
+      <c r="B2">
+        <v>92.62750602691051</v>
+      </c>
       <c r="C2">
-        <v>92.62750602691051</v>
+        <v>98.44847585457256</v>
       </c>
       <c r="D2">
-        <v>98.44847585457256</v>
-      </c>
-      <c r="E2">
         <v>96.04433627895963</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>38018</v>
       </c>
+      <c r="B3">
+        <v>90.1861793165596</v>
+      </c>
       <c r="C3">
-        <v>90.1861793165596</v>
+        <v>98.28904328240463</v>
       </c>
       <c r="D3">
-        <v>98.28904328240463</v>
-      </c>
-      <c r="E3">
         <v>96.64369707758156</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>38047</v>
       </c>
+      <c r="B4">
+        <v>101.8832980423807</v>
+      </c>
       <c r="C4">
-        <v>101.8832980423807</v>
+        <v>97.4860716077727</v>
       </c>
       <c r="D4">
-        <v>97.4860716077727</v>
-      </c>
-      <c r="E4">
         <v>97.30612805728364</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>38078</v>
       </c>
+      <c r="B5">
+        <v>102.5674302511826</v>
+      </c>
       <c r="C5">
-        <v>102.5674302511826</v>
+        <v>95.53365332974144</v>
       </c>
       <c r="D5">
-        <v>95.53365332974144</v>
-      </c>
-      <c r="E5">
         <v>97.99830718001093</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>38108</v>
       </c>
+      <c r="B6">
+        <v>109.8775039405166</v>
+      </c>
       <c r="C6">
-        <v>109.8775039405166</v>
+        <v>96.65664898237415</v>
       </c>
       <c r="D6">
-        <v>96.65664898237415</v>
-      </c>
-      <c r="E6">
         <v>98.71943243895626</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>38139</v>
       </c>
+      <c r="B7">
+        <v>105.6624062020985</v>
+      </c>
       <c r="C7">
-        <v>105.6624062020985</v>
+        <v>98.45237216447451</v>
       </c>
       <c r="D7">
-        <v>98.45237216447451</v>
-      </c>
-      <c r="E7">
         <v>99.46460251772942</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>38169</v>
       </c>
+      <c r="B8">
+        <v>101.1069972900212</v>
+      </c>
       <c r="C8">
-        <v>101.1069972900212</v>
+        <v>100.9556662036567</v>
       </c>
       <c r="D8">
-        <v>100.9556662036567</v>
-      </c>
-      <c r="E8">
         <v>100.2383221799637</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>38200</v>
       </c>
+      <c r="B9">
+        <v>98.35573694243756</v>
+      </c>
       <c r="C9">
-        <v>98.35573694243756</v>
+        <v>101.9278768779535</v>
       </c>
       <c r="D9">
-        <v>101.9278768779535</v>
-      </c>
-      <c r="E9">
         <v>101.0423920427755</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>38231</v>
       </c>
+      <c r="B10">
+        <v>98.08637453469638</v>
+      </c>
       <c r="C10">
-        <v>98.08637453469638</v>
+        <v>102.4704760787243</v>
       </c>
       <c r="D10">
-        <v>102.4704760787243</v>
-      </c>
-      <c r="E10">
         <v>101.8716523979185</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>38261</v>
       </c>
+      <c r="B11">
+        <v>97.8356659809799</v>
+      </c>
       <c r="C11">
-        <v>97.8356659809799</v>
+        <v>103.2236052669281</v>
       </c>
       <c r="D11">
-        <v>103.2236052669281</v>
-      </c>
-      <c r="E11">
         <v>102.7185429453871</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>38292</v>
       </c>
+      <c r="B12">
+        <v>100.1319466812214</v>
+      </c>
       <c r="C12">
-        <v>100.1319466812214</v>
+        <v>103.000197191927</v>
       </c>
       <c r="D12">
-        <v>103.000197191927</v>
-      </c>
-      <c r="E12">
         <v>103.563778426712</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>38322</v>
       </c>
+      <c r="B13">
+        <v>101.6789547909953</v>
+      </c>
       <c r="C13">
-        <v>101.6789547909953</v>
+        <v>103.5559131594704</v>
       </c>
       <c r="D13">
-        <v>103.5559131594704</v>
-      </c>
-      <c r="E13">
         <v>104.3888084567219</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>38353</v>
       </c>
+      <c r="B14">
+        <v>98.47335952917901</v>
+      </c>
       <c r="C14">
-        <v>98.47335952917901</v>
+        <v>105.5403112802187</v>
       </c>
       <c r="D14">
-        <v>105.5403112802187</v>
-      </c>
-      <c r="E14">
         <v>105.1777422943122</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>38384</v>
       </c>
+      <c r="B15">
+        <v>96.11886613343405</v>
+      </c>
       <c r="C15">
-        <v>96.11886613343405</v>
+        <v>106.1065957188219</v>
       </c>
       <c r="D15">
-        <v>106.1065957188219</v>
-      </c>
-      <c r="E15">
         <v>105.9192113258046</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>38412</v>
       </c>
+      <c r="B16">
+        <v>110.6564258671952</v>
+      </c>
       <c r="C16">
-        <v>110.6564258671952</v>
+        <v>107.1101386972952</v>
       </c>
       <c r="D16">
-        <v>107.1101386972952</v>
-      </c>
-      <c r="E16">
         <v>106.6102694411697</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
         <v>38443</v>
       </c>
+      <c r="B17">
+        <v>116.5451904821491</v>
+      </c>
       <c r="C17">
-        <v>116.5451904821491</v>
+        <v>108.1062429041448</v>
       </c>
       <c r="D17">
-        <v>108.1062429041448</v>
-      </c>
-      <c r="E17">
         <v>107.2549077722094</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
         <v>38473</v>
       </c>
+      <c r="B18">
+        <v>126.6619433550273</v>
+      </c>
       <c r="C18">
-        <v>126.6619433550273</v>
+        <v>108.8700638862761</v>
       </c>
       <c r="D18">
-        <v>108.8700638862761</v>
-      </c>
-      <c r="E18">
         <v>107.8629030783158</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>38504</v>
       </c>
+      <c r="B19">
+        <v>116.5022232149288</v>
+      </c>
       <c r="C19">
-        <v>116.5022232149288</v>
+        <v>108.5588783107902</v>
       </c>
       <c r="D19">
-        <v>108.5588783107902</v>
-      </c>
-      <c r="E19">
         <v>108.4497876168488</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>38534</v>
       </c>
+      <c r="B20">
+        <v>107.5811392624596</v>
+      </c>
       <c r="C20">
-        <v>107.5811392624596</v>
+        <v>109.2305652667161</v>
       </c>
       <c r="D20">
-        <v>109.2305652667161</v>
-      </c>
-      <c r="E20">
         <v>109.0333963888928</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>38565</v>
       </c>
+      <c r="B21">
+        <v>105.8208927931011</v>
+      </c>
       <c r="C21">
-        <v>105.8208927931011</v>
+        <v>109.3744256094638</v>
       </c>
       <c r="D21">
-        <v>109.3744256094638</v>
-      </c>
-      <c r="E21">
         <v>109.6304709540061</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
         <v>38596</v>
       </c>
+      <c r="B22">
+        <v>104.8921347267232</v>
+      </c>
       <c r="C22">
-        <v>104.8921347267232</v>
+        <v>109.1371040965169</v>
       </c>
       <c r="D22">
-        <v>109.1371040965169</v>
-      </c>
-      <c r="E22">
         <v>110.2535012387146</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
         <v>38626</v>
       </c>
+      <c r="B23">
+        <v>104.4606653849844</v>
+      </c>
       <c r="C23">
-        <v>104.4606653849844</v>
+        <v>109.7569555624327</v>
       </c>
       <c r="D23">
-        <v>109.7569555624327</v>
-      </c>
-      <c r="E23">
         <v>110.9097926836878</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
         <v>38657</v>
       </c>
+      <c r="B24">
+        <v>108.0037543845483</v>
+      </c>
       <c r="C24">
-        <v>108.0037543845483</v>
+        <v>111.0571117875137</v>
       </c>
       <c r="D24">
-        <v>111.0571117875137</v>
-      </c>
-      <c r="E24">
         <v>111.6037836647248</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
         <v>38687</v>
       </c>
+      <c r="B25">
+        <v>110.5033238992442</v>
+      </c>
       <c r="C25">
-        <v>110.5033238992442</v>
+        <v>113.3715260360211</v>
       </c>
       <c r="D25">
-        <v>113.3715260360211</v>
-      </c>
-      <c r="E25">
         <v>112.3335680749544</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
         <v>38718</v>
       </c>
+      <c r="B26">
+        <v>106.530947876924</v>
+      </c>
       <c r="C26">
-        <v>106.530947876924</v>
+        <v>113.4422597292104</v>
       </c>
       <c r="D26">
-        <v>113.4422597292104</v>
-      </c>
-      <c r="E26">
         <v>113.091339820525</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
         <v>38749</v>
       </c>
+      <c r="B27">
+        <v>104.0901370432872</v>
+      </c>
       <c r="C27">
-        <v>104.0901370432872</v>
+        <v>114.8852087527134</v>
       </c>
       <c r="D27">
-        <v>114.8852087527134</v>
-      </c>
-      <c r="E27">
         <v>113.867714017834</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2">
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
         <v>38777</v>
       </c>
+      <c r="B28">
+        <v>118.588276450431</v>
+      </c>
       <c r="C28">
-        <v>118.588276450431</v>
+        <v>114.8068531158072</v>
       </c>
       <c r="D28">
-        <v>114.8068531158072</v>
-      </c>
-      <c r="E28">
         <v>114.6538820703419</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
         <v>38808</v>
       </c>
+      <c r="B29">
+        <v>122.0871073013163</v>
+      </c>
       <c r="C29">
-        <v>122.0871073013163</v>
+        <v>115.8289276556947</v>
       </c>
       <c r="D29">
-        <v>115.8289276556947</v>
-      </c>
-      <c r="E29">
         <v>115.445608845837</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
         <v>38838</v>
       </c>
+      <c r="B30">
+        <v>133.3710156747742</v>
+      </c>
       <c r="C30">
-        <v>133.3710156747742</v>
+        <v>115.171506448801</v>
       </c>
       <c r="D30">
-        <v>115.171506448801</v>
-      </c>
-      <c r="E30">
         <v>116.2458506548638</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
         <v>38869</v>
       </c>
+      <c r="B31">
+        <v>124.2927477510232</v>
+      </c>
       <c r="C31">
-        <v>124.2927477510232</v>
+        <v>116.0149793864551</v>
       </c>
       <c r="D31">
-        <v>116.0149793864551</v>
-      </c>
-      <c r="E31">
         <v>117.0557778244499</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>38899</v>
       </c>
+      <c r="B32">
+        <v>117.0456318535268</v>
+      </c>
       <c r="C32">
-        <v>117.0456318535268</v>
+        <v>117.9618356762544</v>
       </c>
       <c r="D32">
-        <v>117.9618356762544</v>
-      </c>
-      <c r="E32">
         <v>117.8779658701665</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>38930</v>
       </c>
+      <c r="B33">
+        <v>116.3036079757489</v>
+      </c>
       <c r="C33">
-        <v>116.3036079757489</v>
+        <v>118.9170309298341</v>
       </c>
       <c r="D33">
-        <v>118.9170309298341</v>
-      </c>
-      <c r="E33">
         <v>118.7175972178829</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2">
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>38961</v>
       </c>
+      <c r="B34">
+        <v>114.8024803332391</v>
+      </c>
       <c r="C34">
-        <v>114.8024803332391</v>
+        <v>119.7988167818979</v>
       </c>
       <c r="D34">
-        <v>119.7988167818979</v>
-      </c>
-      <c r="E34">
         <v>119.581191996154</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>38991</v>
       </c>
+      <c r="B35">
+        <v>116.4775082532456</v>
+      </c>
       <c r="C35">
-        <v>116.4775082532456</v>
+        <v>120.1891905061047</v>
       </c>
       <c r="D35">
-        <v>120.1891905061047</v>
-      </c>
-      <c r="E35">
         <v>120.4684121780501</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2">
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>39022</v>
       </c>
+      <c r="B36">
+        <v>118.1407822940663</v>
+      </c>
       <c r="C36">
-        <v>118.1407822940663</v>
+        <v>120.5557677711389</v>
       </c>
       <c r="D36">
-        <v>120.5557677711389</v>
-      </c>
-      <c r="E36">
         <v>121.3773063050814</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2">
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>39052</v>
       </c>
+      <c r="B37">
+        <v>119.60317208093</v>
+      </c>
       <c r="C37">
-        <v>119.60317208093</v>
+        <v>123.7610382677583</v>
       </c>
       <c r="D37">
-        <v>123.7610382677583</v>
-      </c>
-      <c r="E37">
         <v>122.3011804523295</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>39083</v>
       </c>
+      <c r="B38">
+        <v>114.7017648272237</v>
+      </c>
       <c r="C38">
-        <v>114.7017648272237</v>
+        <v>122.1462841988224</v>
       </c>
       <c r="D38">
-        <v>122.1462841988224</v>
-      </c>
-      <c r="E38">
         <v>123.2322047495388</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2">
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>39114</v>
       </c>
+      <c r="B39">
+        <v>112.743248286053</v>
+      </c>
       <c r="C39">
-        <v>112.743248286053</v>
+        <v>124.672155938883</v>
       </c>
       <c r="D39">
-        <v>124.672155938883</v>
-      </c>
-      <c r="E39">
         <v>124.1634140357301</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2">
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>39142</v>
       </c>
+      <c r="B40">
+        <v>129.2827649894466</v>
+      </c>
       <c r="C40">
-        <v>129.2827649894466</v>
+        <v>126.6874084224323</v>
       </c>
       <c r="D40">
-        <v>126.6874084224323</v>
-      </c>
-      <c r="E40">
         <v>125.092471847686</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>39173</v>
       </c>
+      <c r="B41">
+        <v>133.4630831300881</v>
+      </c>
       <c r="C41">
-        <v>133.4630831300881</v>
+        <v>125.5469772880352</v>
       </c>
       <c r="D41">
-        <v>125.5469772880352</v>
-      </c>
-      <c r="E41">
         <v>126.0154316732839</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2">
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>39203</v>
       </c>
+      <c r="B42">
+        <v>147.6079107416754</v>
+      </c>
       <c r="C42">
-        <v>147.6079107416754</v>
+        <v>127.2938326898402</v>
       </c>
       <c r="D42">
-        <v>127.2938326898402</v>
-      </c>
-      <c r="E42">
         <v>126.9305024211476</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
         <v>39234</v>
       </c>
+      <c r="B43">
+        <v>136.1209863049451</v>
+      </c>
       <c r="C43">
-        <v>136.1209863049451</v>
+        <v>128.1963743996245</v>
       </c>
       <c r="D43">
-        <v>128.1963743996245</v>
-      </c>
-      <c r="E43">
         <v>127.8382055604871</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>39264</v>
       </c>
+      <c r="B44">
+        <v>127.3875518979554</v>
+      </c>
       <c r="C44">
-        <v>127.3875518979554</v>
+        <v>127.1893853226784</v>
       </c>
       <c r="D44">
-        <v>127.1893853226784</v>
-      </c>
-      <c r="E44">
         <v>128.738577897983</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
         <v>39295</v>
       </c>
+      <c r="B45">
+        <v>126.59522767863</v>
+      </c>
       <c r="C45">
-        <v>126.59522767863</v>
+        <v>129.1341896685027</v>
       </c>
       <c r="D45">
-        <v>129.1341896685027</v>
-      </c>
-      <c r="E45">
         <v>129.6307665012663</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
         <v>39326</v>
       </c>
+      <c r="B46">
+        <v>123.5104632944452</v>
+      </c>
       <c r="C46">
-        <v>123.5104632944452</v>
+        <v>129.6058493046388</v>
       </c>
       <c r="D46">
-        <v>129.6058493046388</v>
-      </c>
-      <c r="E46">
         <v>130.5109301364085</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
         <v>39356</v>
       </c>
+      <c r="B47">
+        <v>128.4153826610447</v>
+      </c>
       <c r="C47">
-        <v>128.4153826610447</v>
+        <v>131.2797574009516</v>
       </c>
       <c r="D47">
-        <v>131.2797574009516</v>
-      </c>
-      <c r="E47">
         <v>131.370342598031</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
         <v>39387</v>
       </c>
+      <c r="B48">
+        <v>129.7350894561735</v>
+      </c>
       <c r="C48">
-        <v>129.7350894561735</v>
+        <v>132.462884566781</v>
       </c>
       <c r="D48">
-        <v>132.462884566781</v>
-      </c>
-      <c r="E48">
         <v>132.1922704673666</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
         <v>39417</v>
       </c>
+      <c r="B49">
+        <v>128.897928374986</v>
+      </c>
       <c r="C49">
-        <v>128.897928374986</v>
+        <v>134.2463025866324</v>
       </c>
       <c r="D49">
-        <v>134.2463025866324</v>
-      </c>
-      <c r="E49">
         <v>132.9480672425077</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2">
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>39448</v>
       </c>
+      <c r="B50">
+        <v>126.2268925108143</v>
+      </c>
       <c r="C50">
-        <v>126.2268925108143</v>
+        <v>134.9223658892498</v>
       </c>
       <c r="D50">
-        <v>134.9223658892498</v>
-      </c>
-      <c r="E50">
         <v>133.6054188109597</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2">
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>39479</v>
       </c>
+      <c r="B51">
+        <v>122.8249045091645</v>
+      </c>
       <c r="C51">
-        <v>122.8249045091645</v>
+        <v>133.8081218119373</v>
       </c>
       <c r="D51">
-        <v>133.8081218119373</v>
-      </c>
-      <c r="E51">
         <v>134.1277849728288</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>39508</v>
       </c>
+      <c r="B52">
+        <v>132.3341272874356</v>
+      </c>
       <c r="C52">
-        <v>132.3341272874356</v>
+        <v>133.5037461750791</v>
       </c>
       <c r="D52">
-        <v>133.5037461750791</v>
-      </c>
-      <c r="E52">
         <v>134.477492164624</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2">
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>39539</v>
       </c>
+      <c r="B53">
+        <v>145.2804985520721</v>
+      </c>
       <c r="C53">
-        <v>145.2804985520721</v>
+        <v>136.1941348622052</v>
       </c>
       <c r="D53">
-        <v>136.1941348622052</v>
-      </c>
-      <c r="E53">
         <v>134.620596549182</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>39569</v>
       </c>
+      <c r="B54">
+        <v>154.1561639128665</v>
+      </c>
       <c r="C54">
-        <v>154.1561639128665</v>
+        <v>135.0745089416096</v>
       </c>
       <c r="D54">
-        <v>135.0745089416096</v>
-      </c>
-      <c r="E54">
         <v>134.5271959475096</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>39600</v>
       </c>
+      <c r="B55">
+        <v>140.5034842166976</v>
+      </c>
       <c r="C55">
-        <v>140.5034842166976</v>
+        <v>132.910058939761</v>
       </c>
       <c r="D55">
-        <v>132.910058939761</v>
-      </c>
-      <c r="E55">
         <v>134.1775051179096</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>39630</v>
       </c>
+      <c r="B56">
+        <v>136.6386880537158</v>
+      </c>
       <c r="C56">
-        <v>136.6386880537158</v>
+        <v>135.4044862638615</v>
       </c>
       <c r="D56">
-        <v>135.4044862638615</v>
-      </c>
-      <c r="E56">
         <v>133.5709969211732</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>39661</v>
       </c>
+      <c r="B57">
+        <v>131.340921435527</v>
+      </c>
       <c r="C57">
-        <v>131.340921435527</v>
+        <v>135.5431110523924</v>
       </c>
       <c r="D57">
-        <v>135.5431110523924</v>
-      </c>
-      <c r="E57">
         <v>132.7246340766827</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>39692</v>
       </c>
+      <c r="B58">
+        <v>132.1859384898846</v>
+      </c>
       <c r="C58">
-        <v>132.1859384898846</v>
+        <v>135.6363392794121</v>
       </c>
       <c r="D58">
-        <v>135.6363392794121</v>
-      </c>
-      <c r="E58">
         <v>131.6744362287274</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>39722</v>
       </c>
+      <c r="B59">
+        <v>130.3951788425591</v>
+      </c>
       <c r="C59">
-        <v>130.3951788425591</v>
+        <v>132.3970070551157</v>
       </c>
       <c r="D59">
-        <v>132.3970070551157</v>
-      </c>
-      <c r="E59">
         <v>130.4733292129677</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>39753</v>
       </c>
+      <c r="B60">
+        <v>125.5275632926216</v>
+      </c>
       <c r="C60">
-        <v>125.5275632926216</v>
+        <v>129.6401181990709</v>
       </c>
       <c r="D60">
-        <v>129.6401181990709</v>
-      </c>
-      <c r="E60">
         <v>129.1913700434419</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>39783</v>
       </c>
+      <c r="B61">
+        <v>123.4660057940766</v>
+      </c>
       <c r="C61">
-        <v>123.4660057940766</v>
+        <v>125.846368578792</v>
       </c>
       <c r="D61">
-        <v>125.846368578792</v>
-      </c>
-      <c r="E61">
         <v>127.907367499513</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" s="2">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>39814</v>
       </c>
+      <c r="B62">
+        <v>116.7584192020652</v>
+      </c>
       <c r="C62">
-        <v>116.7584192020652</v>
+        <v>124.3678688261166</v>
       </c>
       <c r="D62">
-        <v>124.3678688261166</v>
-      </c>
-      <c r="E62">
         <v>126.7071027438308</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" s="2">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>39845</v>
       </c>
+      <c r="B63">
+        <v>114.8588614859279</v>
+      </c>
       <c r="C63">
-        <v>114.8588614859279</v>
+        <v>126.3641202274572</v>
       </c>
       <c r="D63">
-        <v>126.3641202274572</v>
-      </c>
-      <c r="E63">
         <v>125.6737037524496</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>39873</v>
       </c>
+      <c r="B64">
+        <v>126.1656026102611</v>
+      </c>
       <c r="C64">
-        <v>126.1656026102611</v>
+        <v>123.6742423667017</v>
       </c>
       <c r="D64">
-        <v>123.6742423667017</v>
-      </c>
-      <c r="E64">
         <v>124.8769083575761</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>39904</v>
       </c>
+      <c r="B65">
+        <v>127.9905588745035</v>
+      </c>
       <c r="C65">
-        <v>127.9905588745035</v>
+        <v>122.0750735193604</v>
       </c>
       <c r="D65">
-        <v>122.0750735193604</v>
-      </c>
-      <c r="E65">
         <v>124.366832820737</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>39934</v>
       </c>
+      <c r="B66">
+        <v>133.0356704781431</v>
+      </c>
       <c r="C66">
-        <v>133.0356704781431</v>
+        <v>121.2169598564116</v>
       </c>
       <c r="D66">
-        <v>121.2169598564116</v>
-      </c>
-      <c r="E66">
         <v>124.1730574826873</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>39965</v>
       </c>
+      <c r="B67">
+        <v>129.312658048059</v>
+      </c>
       <c r="C67">
-        <v>129.312658048059</v>
+        <v>122.1596220982156</v>
       </c>
       <c r="D67">
-        <v>122.1596220982156</v>
-      </c>
-      <c r="E67">
         <v>124.303038483768</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" s="2">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
         <v>39995</v>
       </c>
+      <c r="B68">
+        <v>127.3630583750141</v>
+      </c>
       <c r="C68">
-        <v>127.3630583750141</v>
+        <v>124.8347178049719</v>
       </c>
       <c r="D68">
-        <v>124.8347178049719</v>
-      </c>
-      <c r="E68">
         <v>124.7439820076089</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" s="2">
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
         <v>40026</v>
       </c>
+      <c r="B69">
+        <v>124.0032862089465</v>
+      </c>
       <c r="C69">
-        <v>124.0032862089465</v>
+        <v>126.3645594861256</v>
       </c>
       <c r="D69">
-        <v>126.3645594861256</v>
-      </c>
-      <c r="E69">
         <v>125.4651658007824</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" s="2">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
         <v>40057</v>
       </c>
+      <c r="B70">
+        <v>126.1851281247277</v>
+      </c>
       <c r="C70">
-        <v>126.1851281247277</v>
+        <v>128.0277442401512</v>
       </c>
       <c r="D70">
-        <v>128.0277442401512</v>
-      </c>
-      <c r="E70">
         <v>126.4239975038398</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" s="2">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>40087</v>
       </c>
+      <c r="B71">
+        <v>127.0798618826952</v>
+      </c>
       <c r="C71">
-        <v>127.0798618826952</v>
+        <v>128.9468415428195</v>
       </c>
       <c r="D71">
-        <v>128.9468415428195</v>
-      </c>
-      <c r="E71">
         <v>127.5675486338529</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" s="2">
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>40118</v>
       </c>
+      <c r="B72">
+        <v>127.0921917802913</v>
+      </c>
       <c r="C72">
-        <v>127.0921917802913</v>
+        <v>129.3313828145833</v>
       </c>
       <c r="D72">
-        <v>129.3313828145833</v>
-      </c>
-      <c r="E72">
         <v>128.8391370682386</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" s="2">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>40148</v>
       </c>
+      <c r="B73">
+        <v>126.2865638055583</v>
+      </c>
       <c r="C73">
-        <v>126.2865638055583</v>
+        <v>128.768728235392</v>
       </c>
       <c r="D73">
-        <v>128.768728235392</v>
-      </c>
-      <c r="E73">
         <v>130.1845743544382</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" s="2">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>40179</v>
       </c>
+      <c r="B74">
+        <v>121.5056785292316</v>
+      </c>
       <c r="C74">
-        <v>121.5056785292316</v>
+        <v>131.6066307766114</v>
       </c>
       <c r="D74">
-        <v>131.6066307766114</v>
-      </c>
-      <c r="E74">
         <v>131.5580281187125</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" s="2">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>40210</v>
       </c>
+      <c r="B75">
+        <v>119.8228020920397</v>
+      </c>
       <c r="C75">
-        <v>119.8228020920397</v>
+        <v>133.2331738746498</v>
       </c>
       <c r="D75">
-        <v>133.2331738746498</v>
-      </c>
-      <c r="E75">
         <v>132.9179248833089</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" s="2">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>40238</v>
       </c>
+      <c r="B76">
+        <v>136.8955016204612</v>
+      </c>
       <c r="C76">
-        <v>136.8955016204612</v>
+        <v>134.4293269760129</v>
       </c>
       <c r="D76">
-        <v>134.4293269760129</v>
-      </c>
-      <c r="E76">
         <v>134.2326770142881</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>40269</v>
       </c>
+      <c r="B77">
+        <v>145.7741314930178</v>
+      </c>
       <c r="C77">
-        <v>145.7741314930178</v>
+        <v>136.8752353326228</v>
       </c>
       <c r="D77">
-        <v>136.8752353326228</v>
-      </c>
-      <c r="E77">
         <v>135.4780007085941</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>40299</v>
       </c>
+      <c r="B78">
+        <v>158.1106315304388</v>
+      </c>
       <c r="C78">
-        <v>158.1106315304388</v>
+        <v>139.2235460179926</v>
       </c>
       <c r="D78">
-        <v>139.2235460179926</v>
-      </c>
-      <c r="E78">
         <v>136.6397446894804</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>40330</v>
       </c>
+      <c r="B79">
+        <v>149.8615520080544</v>
+      </c>
       <c r="C79">
-        <v>149.8615520080544</v>
+        <v>140.569973001725</v>
       </c>
       <c r="D79">
-        <v>140.569973001725</v>
-      </c>
-      <c r="E79">
         <v>137.7111594959408</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>40360</v>
       </c>
+      <c r="B80">
+        <v>139.5056866287273</v>
+      </c>
       <c r="C80">
-        <v>139.5056866287273</v>
+        <v>139.0238810041266</v>
       </c>
       <c r="D80">
-        <v>139.0238810041266</v>
-      </c>
-      <c r="E80">
         <v>138.696306486123</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2">
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>40391</v>
       </c>
+      <c r="B81">
+        <v>137.2459806871557</v>
+      </c>
       <c r="C81">
-        <v>137.2459806871557</v>
+        <v>139.5605503798816</v>
       </c>
       <c r="D81">
-        <v>139.5605503798816</v>
-      </c>
-      <c r="E81">
         <v>139.6102961240281</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2">
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>40422</v>
       </c>
+      <c r="B82">
+        <v>136.6964267216229</v>
+      </c>
       <c r="C82">
-        <v>136.6964267216229</v>
+        <v>139.5772418198063</v>
       </c>
       <c r="D82">
-        <v>139.5772418198063</v>
-      </c>
-      <c r="E82">
         <v>140.4725280944902</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>40452</v>
       </c>
+      <c r="B83">
+        <v>135.1388445069232</v>
+      </c>
       <c r="C83">
-        <v>135.1388445069232</v>
+        <v>140.0315419993893</v>
       </c>
       <c r="D83">
-        <v>140.0315419993893</v>
-      </c>
-      <c r="E83">
         <v>141.2970958607532</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2">
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>40483</v>
       </c>
+      <c r="B84">
+        <v>139.5988232837222</v>
+      </c>
       <c r="C84">
-        <v>139.5988232837222</v>
+        <v>142.1482578923551</v>
       </c>
       <c r="D84">
-        <v>142.1482578923551</v>
-      </c>
-      <c r="E84">
         <v>142.0933144830439</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2">
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>40513</v>
       </c>
+      <c r="B85">
+        <v>138.4776495127169</v>
+      </c>
       <c r="C85">
-        <v>138.4776495127169</v>
+        <v>142.3543496954395</v>
       </c>
       <c r="D85">
-        <v>142.3543496954395</v>
-      </c>
-      <c r="E85">
         <v>142.8666251709996</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>40544</v>
       </c>
+      <c r="B86">
+        <v>133.0769197185519</v>
+      </c>
       <c r="C86">
-        <v>133.0769197185519</v>
+        <v>145.3777714341187</v>
       </c>
       <c r="D86">
-        <v>145.3777714341187</v>
-      </c>
-      <c r="E86">
         <v>143.6177393167904</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2">
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>40575</v>
       </c>
+      <c r="B87">
+        <v>129.5098868426219</v>
+      </c>
       <c r="C87">
-        <v>129.5098868426219</v>
+        <v>144.1059928481775</v>
       </c>
       <c r="D87">
-        <v>144.1059928481775</v>
-      </c>
-      <c r="E87">
         <v>144.338442172298</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>40603</v>
       </c>
+      <c r="B88">
+        <v>147.0018390950237</v>
+      </c>
       <c r="C88">
-        <v>147.0018390950237</v>
+        <v>145.2842421382701</v>
       </c>
       <c r="D88">
-        <v>145.2842421382701</v>
-      </c>
-      <c r="E88">
         <v>145.0095525809544</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>40634</v>
       </c>
+      <c r="B89">
+        <v>151.035823039618</v>
+      </c>
       <c r="C89">
-        <v>151.035823039618</v>
+        <v>144.8624610684608</v>
       </c>
       <c r="D89">
-        <v>144.8624610684608</v>
-      </c>
-      <c r="E89">
         <v>145.6075986254424</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>40664</v>
       </c>
+      <c r="B90">
+        <v>166.1783420810174</v>
+      </c>
       <c r="C90">
-        <v>166.1783420810174</v>
+        <v>146.8992229774827</v>
       </c>
       <c r="D90">
-        <v>146.8992229774827</v>
-      </c>
-      <c r="E90">
         <v>146.1091264130245</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>40695</v>
       </c>
+      <c r="B91">
+        <v>156.6936585122553</v>
+      </c>
       <c r="C91">
-        <v>156.6936585122553</v>
+        <v>147.0100036293784</v>
       </c>
       <c r="D91">
-        <v>147.0100036293784</v>
-      </c>
-      <c r="E91">
         <v>146.4934944588654</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>40725</v>
       </c>
+      <c r="B92">
+        <v>146.3780882804684</v>
+      </c>
       <c r="C92">
-        <v>146.3780882804684</v>
+        <v>146.6264068756869</v>
       </c>
       <c r="D92">
-        <v>146.6264068756869</v>
-      </c>
-      <c r="E92">
         <v>146.74411967597</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>40756</v>
       </c>
+      <c r="B93">
+        <v>146.3985053847187</v>
+      </c>
       <c r="C93">
-        <v>146.3985053847187</v>
+        <v>146.7439160116589</v>
       </c>
       <c r="D93">
-        <v>146.7439160116589</v>
-      </c>
-      <c r="E93">
         <v>146.8509207024188</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>40787</v>
       </c>
+      <c r="B94">
+        <v>147.170906821271</v>
+      </c>
       <c r="C94">
-        <v>147.170906821271</v>
+        <v>148.5882180105588</v>
       </c>
       <c r="D94">
-        <v>148.5882180105588</v>
-      </c>
-      <c r="E94">
         <v>146.8111294431613</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" s="2">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>40817</v>
       </c>
+      <c r="B95">
+        <v>145.0500024277993</v>
+      </c>
       <c r="C95">
-        <v>145.0500024277993</v>
+        <v>147.1806898773179</v>
       </c>
       <c r="D95">
-        <v>147.1806898773179</v>
-      </c>
-      <c r="E95">
         <v>146.6345938522395</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" s="2">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>40848</v>
       </c>
+      <c r="B96">
+        <v>146.3616451241655</v>
+      </c>
       <c r="C96">
-        <v>146.3616451241655</v>
+        <v>147.5950944366002</v>
       </c>
       <c r="D96">
-        <v>147.5950944366002</v>
-      </c>
-      <c r="E96">
         <v>146.3459489620715</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" s="2">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>40878</v>
       </c>
+      <c r="B97">
+        <v>143.3616578537433</v>
+      </c>
       <c r="C97">
-        <v>143.3616578537433</v>
+        <v>147.943256039442</v>
       </c>
       <c r="D97">
-        <v>147.943256039442</v>
-      </c>
-      <c r="E97">
         <v>145.9804193768003</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" s="2">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>40909</v>
       </c>
+      <c r="B98">
+        <v>136.1940812936129</v>
+      </c>
       <c r="C98">
-        <v>136.1940812936129</v>
+        <v>147.2610788222247</v>
       </c>
       <c r="D98">
-        <v>147.2610788222247</v>
-      </c>
-      <c r="E98">
         <v>145.5793320965167</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" s="2">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>40940</v>
       </c>
+      <c r="B99">
+        <v>132.3605259407412</v>
+      </c>
       <c r="C99">
-        <v>132.3605259407412</v>
+        <v>145.5209007088441</v>
       </c>
       <c r="D99">
-        <v>145.5209007088441</v>
-      </c>
-      <c r="E99">
         <v>145.185201725022</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" s="2">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>40969</v>
       </c>
+      <c r="B100">
+        <v>147.4410162449576</v>
+      </c>
       <c r="C100">
-        <v>147.4410162449576</v>
+        <v>145.1310729017615</v>
       </c>
       <c r="D100">
-        <v>145.1310729017615</v>
-      </c>
-      <c r="E100">
         <v>144.8408535425426</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2">
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>41000</v>
       </c>
+      <c r="B101">
+        <v>145.5202783185452</v>
+      </c>
       <c r="C101">
-        <v>145.5202783185452</v>
+        <v>141.2282168587656</v>
       </c>
       <c r="D101">
-        <v>141.2282168587656</v>
-      </c>
-      <c r="E101">
         <v>144.5823521307399</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" s="2">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>41030</v>
       </c>
+      <c r="B102">
+        <v>157.4041837193603</v>
+      </c>
       <c r="C102">
-        <v>157.4041837193603</v>
+        <v>140.4654701203572</v>
       </c>
       <c r="D102">
-        <v>140.4654701203572</v>
-      </c>
-      <c r="E102">
         <v>144.4397973055084</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" s="2">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>41061</v>
       </c>
+      <c r="B103">
+        <v>149.0331017415051</v>
+      </c>
       <c r="C103">
-        <v>149.0331017415051</v>
+        <v>140.9648211932786</v>
       </c>
       <c r="D103">
-        <v>140.9648211932786</v>
-      </c>
-      <c r="E103">
         <v>144.4338941121728</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" s="2">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>41091</v>
       </c>
+      <c r="B104">
+        <v>146.8627996190369</v>
+      </c>
       <c r="C104">
-        <v>146.8627996190369</v>
+        <v>144.4262758663851</v>
       </c>
       <c r="D104">
-        <v>144.4262758663851</v>
-      </c>
-      <c r="E104">
         <v>144.5730114234003</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" s="2">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>41122</v>
       </c>
+      <c r="B105">
+        <v>145.6932569888101</v>
+      </c>
       <c r="C105">
-        <v>145.6932569888101</v>
+        <v>145.2005483007296</v>
       </c>
       <c r="D105">
-        <v>145.2005483007296</v>
-      </c>
-      <c r="E105">
         <v>144.8509729906482</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" s="2">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>41153</v>
       </c>
+      <c r="B106">
+        <v>142.4715365173142</v>
+      </c>
       <c r="C106">
-        <v>142.4715365173142</v>
+        <v>146.3476293483223</v>
       </c>
       <c r="D106">
-        <v>146.3476293483223</v>
-      </c>
-      <c r="E106">
         <v>145.2459102352831</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" s="2">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>41183</v>
       </c>
+      <c r="B107">
+        <v>147.2313029553008</v>
+      </c>
       <c r="C107">
-        <v>147.2313029553008</v>
+        <v>147.2937326448172</v>
       </c>
       <c r="D107">
-        <v>147.2937326448172</v>
-      </c>
-      <c r="E107">
         <v>145.7270677344777</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" s="2">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>41214</v>
       </c>
+      <c r="B108">
+        <v>146.3734318446863</v>
+      </c>
       <c r="C108">
-        <v>146.3734318446863</v>
+        <v>147.2711390401685</v>
       </c>
       <c r="D108">
-        <v>147.2711390401685</v>
-      </c>
-      <c r="E108">
         <v>146.2607790494027</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" s="2">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>41244</v>
       </c>
+      <c r="B109">
+        <v>143.5850580995814</v>
+      </c>
       <c r="C109">
-        <v>143.5850580995814</v>
+        <v>149.0596876420003</v>
       </c>
       <c r="D109">
-        <v>149.0596876420003</v>
-      </c>
-      <c r="E109">
         <v>146.8104994347093</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" s="2">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>41275</v>
       </c>
+      <c r="B110">
+        <v>136.5170718250443</v>
+      </c>
       <c r="C110">
-        <v>136.5170718250443</v>
+        <v>146.2220817058157</v>
       </c>
       <c r="D110">
-        <v>146.2220817058157</v>
-      </c>
-      <c r="E110">
         <v>147.3425928313389</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" s="2">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>41306</v>
       </c>
+      <c r="B111">
+        <v>132.795321964955</v>
+      </c>
       <c r="C111">
-        <v>132.795321964955</v>
+        <v>148.0834842470835</v>
       </c>
       <c r="D111">
-        <v>148.0834842470835</v>
-      </c>
-      <c r="E111">
         <v>147.8287117464541</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" s="2">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>41334</v>
       </c>
+      <c r="B112">
+        <v>149.4039456673648</v>
+      </c>
       <c r="C112">
-        <v>149.4039456673648</v>
+        <v>148.5038406427012</v>
       </c>
       <c r="D112">
-        <v>148.5038406427012</v>
-      </c>
-      <c r="E112">
         <v>148.2434517619676</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" s="2">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>41365</v>
       </c>
+      <c r="B113">
+        <v>155.9415958415765</v>
+      </c>
       <c r="C113">
-        <v>155.9415958415765</v>
+        <v>147.7686763256947</v>
       </c>
       <c r="D113">
-        <v>147.7686763256947</v>
-      </c>
-      <c r="E113">
         <v>148.5709427025438</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" s="2">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>41395</v>
       </c>
+      <c r="B114">
+        <v>167.9734791225302</v>
+      </c>
       <c r="C114">
-        <v>167.9734791225302</v>
+        <v>148.8054263129239</v>
       </c>
       <c r="D114">
-        <v>148.8054263129239</v>
-      </c>
-      <c r="E114">
         <v>148.8018882908177</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" s="2">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>41426</v>
       </c>
+      <c r="B115">
+        <v>156.2718644302407</v>
+      </c>
       <c r="C115">
-        <v>156.2718644302407</v>
+        <v>149.4430981664753</v>
       </c>
       <c r="D115">
-        <v>149.4430981664753</v>
-      </c>
-      <c r="E115">
         <v>148.9251992276562</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" s="2">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>41456</v>
       </c>
+      <c r="B116">
+        <v>150.731001298259</v>
+      </c>
       <c r="C116">
-        <v>150.731001298259</v>
+        <v>148.3514872184116</v>
       </c>
       <c r="D116">
-        <v>148.3514872184116</v>
-      </c>
-      <c r="E116">
         <v>148.9329114530266</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" s="2">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>41487</v>
       </c>
+      <c r="B117">
+        <v>148.4214495305005</v>
+      </c>
       <c r="C117">
-        <v>148.4214495305005</v>
+        <v>150.1300876192389</v>
       </c>
       <c r="D117">
-        <v>150.1300876192389</v>
-      </c>
-      <c r="E117">
         <v>148.8203215195008</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" s="2">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>41518</v>
       </c>
+      <c r="B118">
+        <v>147.0048441881334</v>
+      </c>
       <c r="C118">
-        <v>147.0048441881334</v>
+        <v>150.3242597962993</v>
       </c>
       <c r="D118">
-        <v>150.3242597962993</v>
-      </c>
-      <c r="E118">
         <v>148.5905517267405</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" s="2">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>41548</v>
       </c>
+      <c r="B119">
+        <v>148.6939593959755</v>
+      </c>
       <c r="C119">
-        <v>148.6939593959755</v>
+        <v>149.3590858915773</v>
       </c>
       <c r="D119">
-        <v>149.3590858915773</v>
-      </c>
-      <c r="E119">
         <v>148.2532916300303</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" s="2">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>41579</v>
       </c>
+      <c r="B120">
+        <v>145.69589762827</v>
+      </c>
       <c r="C120">
-        <v>145.69589762827</v>
+        <v>148.4305022463685</v>
       </c>
       <c r="D120">
-        <v>148.4305022463685</v>
-      </c>
-      <c r="E120">
         <v>147.8209522978087</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" s="2">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>41609</v>
       </c>
+      <c r="B121">
+        <v>142.5768791271264</v>
+      </c>
       <c r="C121">
-        <v>142.5768791271264</v>
+        <v>146.6052800155361</v>
       </c>
       <c r="D121">
-        <v>146.6052800155361</v>
-      </c>
-      <c r="E121">
         <v>147.3116460440184</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" s="2">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>41640</v>
       </c>
+      <c r="B122">
+        <v>137.9696973953764</v>
+      </c>
       <c r="C122">
-        <v>137.9696973953764</v>
+        <v>146.3767884021664</v>
       </c>
       <c r="D122">
-        <v>146.3767884021664</v>
-      </c>
-      <c r="E122">
         <v>146.7469819513319</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" s="2">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>41671</v>
       </c>
+      <c r="B123">
+        <v>132.4863068724306</v>
+      </c>
       <c r="C123">
-        <v>132.4863068724306</v>
+        <v>146.7518547580093</v>
       </c>
       <c r="D123">
-        <v>146.7518547580093</v>
-      </c>
-      <c r="E123">
         <v>146.1540523599156</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" s="2">
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>41699</v>
       </c>
+      <c r="B124">
+        <v>144.5378280834701</v>
+      </c>
       <c r="C124">
-        <v>144.5378280834701</v>
+        <v>144.5809188849167</v>
       </c>
       <c r="D124">
-        <v>144.5809188849167</v>
-      </c>
-      <c r="E124">
         <v>145.5654427865466</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" s="2">
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>41730</v>
       </c>
+      <c r="B125">
+        <v>152.3414354614714</v>
+      </c>
       <c r="C125">
-        <v>152.3414354614714</v>
+        <v>144.6588984917846</v>
       </c>
       <c r="D125">
-        <v>144.6588984917846</v>
-      </c>
-      <c r="E125">
         <v>145.0175433174291</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" s="2">
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>41760</v>
       </c>
+      <c r="B126">
+        <v>164.2032439025611</v>
+      </c>
       <c r="C126">
-        <v>164.2032439025611</v>
+        <v>145.1651145109523</v>
       </c>
       <c r="D126">
-        <v>145.1651145109523</v>
-      </c>
-      <c r="E126">
         <v>144.5464865896015</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" s="2">
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>41791</v>
       </c>
+      <c r="B127">
+        <v>153.8035240299005</v>
+      </c>
       <c r="C127">
-        <v>153.8035240299005</v>
+        <v>145.0526490688197</v>
       </c>
       <c r="D127">
-        <v>145.0526490688197</v>
-      </c>
-      <c r="E127">
         <v>144.1873092986494</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" s="2">
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>41821</v>
       </c>
+      <c r="B128">
+        <v>145.4228137340859</v>
+      </c>
       <c r="C128">
-        <v>145.4228137340859</v>
+        <v>144.1862429793595</v>
       </c>
       <c r="D128">
-        <v>144.1862429793595</v>
-      </c>
-      <c r="E128">
         <v>143.9715900282303</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" s="2">
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
         <v>41852</v>
       </c>
+      <c r="B129">
+        <v>140.1053039660589</v>
+      </c>
       <c r="C129">
-        <v>140.1053039660589</v>
+        <v>143.5409541698346</v>
       </c>
       <c r="D129">
-        <v>143.5409541698346</v>
-      </c>
-      <c r="E129">
         <v>143.9254242540958</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" s="2">
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
         <v>41883</v>
       </c>
+      <c r="B130">
+        <v>141.7187331995573</v>
+      </c>
       <c r="C130">
-        <v>141.7187331995573</v>
+        <v>143.6159312570864</v>
       </c>
       <c r="D130">
-        <v>143.6159312570864</v>
-      </c>
-      <c r="E130">
         <v>144.0596510917472</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131" s="2">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
         <v>41913</v>
       </c>
+      <c r="B131">
+        <v>143.3493974176129</v>
+      </c>
       <c r="C131">
-        <v>143.3493974176129</v>
+        <v>144.1945490628304</v>
       </c>
       <c r="D131">
-        <v>144.1945490628304</v>
-      </c>
-      <c r="E131">
         <v>144.3727645164887</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132" s="2">
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
         <v>41944</v>
       </c>
+      <c r="B132">
+        <v>140.8775968982631</v>
+      </c>
       <c r="C132">
-        <v>140.8775968982631</v>
+        <v>144.5368287019531</v>
       </c>
       <c r="D132">
-        <v>144.5368287019531</v>
-      </c>
-      <c r="E132">
         <v>144.8461643650119</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133" s="2">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
         <v>41974</v>
       </c>
+      <c r="B133">
+        <v>140.4359377491282</v>
+      </c>
       <c r="C133">
-        <v>140.4359377491282</v>
+        <v>144.591088586129</v>
       </c>
       <c r="D133">
-        <v>144.591088586129</v>
-      </c>
-      <c r="E133">
         <v>145.4503594390806</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134" s="2">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
         <v>42005</v>
       </c>
+      <c r="B134">
+        <v>133.9981890703503</v>
+      </c>
       <c r="C134">
-        <v>133.9981890703503</v>
+        <v>144.782123721199</v>
       </c>
       <c r="D134">
-        <v>144.782123721199</v>
-      </c>
-      <c r="E134">
         <v>146.1453070507923</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135" s="2">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
         <v>42036</v>
       </c>
+      <c r="B135">
+        <v>132.627886955774</v>
+      </c>
       <c r="C135">
-        <v>132.627886955774</v>
+        <v>148.3720755905862</v>
       </c>
       <c r="D135">
-        <v>148.3720755905862</v>
-      </c>
-      <c r="E135">
         <v>146.8785519712831</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136" s="2">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
         <v>42064</v>
       </c>
+      <c r="B136">
+        <v>149.4090129833281</v>
+      </c>
       <c r="C136">
-        <v>149.4090129833281</v>
+        <v>146.7956744245868</v>
       </c>
       <c r="D136">
-        <v>146.7956744245868</v>
-      </c>
-      <c r="E136">
         <v>147.5938625068809</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" s="2">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
         <v>42095</v>
       </c>
+      <c r="B137">
+        <v>157.4845995373143</v>
+      </c>
       <c r="C137">
-        <v>157.4845995373143</v>
+        <v>148.8615273309031</v>
       </c>
       <c r="D137">
-        <v>148.8615273309031</v>
-      </c>
-      <c r="E137">
         <v>148.2384268098097</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" s="2">
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
         <v>42125</v>
       </c>
+      <c r="B138">
+        <v>168.8861005898341</v>
+      </c>
       <c r="C138">
-        <v>168.8861005898341</v>
+        <v>149.5519532139683</v>
       </c>
       <c r="D138">
-        <v>149.5519532139683</v>
-      </c>
-      <c r="E138">
         <v>148.7648606534635</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139" s="2">
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
         <v>42156</v>
       </c>
+      <c r="B139">
+        <v>162.9373900091223</v>
+      </c>
       <c r="C139">
-        <v>162.9373900091223</v>
+        <v>151.9323113335348</v>
       </c>
       <c r="D139">
-        <v>151.9323113335348</v>
-      </c>
-      <c r="E139">
         <v>149.1328073640859</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140" s="2">
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
         <v>42186</v>
       </c>
+      <c r="B140">
+        <v>151.8447963430633</v>
+      </c>
       <c r="C140">
-        <v>151.8447963430633</v>
+        <v>150.5947313009463</v>
       </c>
       <c r="D140">
-        <v>150.5947313009463</v>
-      </c>
-      <c r="E140">
         <v>149.3187338639387</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141" s="2">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
         <v>42217</v>
       </c>
+      <c r="B141">
+        <v>146.4650672048623</v>
+      </c>
       <c r="C141">
-        <v>146.4650672048623</v>
+        <v>149.954761879877</v>
       </c>
       <c r="D141">
-        <v>149.954761879877</v>
-      </c>
-      <c r="E141">
         <v>149.3168154246681</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142" s="2">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
         <v>42248</v>
       </c>
+      <c r="B142">
+        <v>145.8823237186007</v>
+      </c>
       <c r="C142">
-        <v>145.8823237186007</v>
+        <v>149.2926013005589</v>
       </c>
       <c r="D142">
-        <v>149.2926013005589</v>
-      </c>
-      <c r="E142">
         <v>149.1356152478879</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143" s="2">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
         <v>42278</v>
       </c>
+      <c r="B143">
+        <v>147.0458761534163</v>
+      </c>
       <c r="C143">
-        <v>147.0458761534163</v>
+        <v>149.4428055619192</v>
       </c>
       <c r="D143">
-        <v>149.4428055619192</v>
-      </c>
-      <c r="E143">
         <v>148.795890112768</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144" s="2">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
         <v>42309</v>
       </c>
+      <c r="B144">
+        <v>146.175581385648</v>
+      </c>
       <c r="C144">
-        <v>146.175581385648</v>
+        <v>148.364354068183</v>
       </c>
       <c r="D144">
-        <v>148.364354068183</v>
-      </c>
-      <c r="E144">
         <v>148.3314151082004</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145" s="2">
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>42339</v>
       </c>
+      <c r="B145">
+        <v>141.9421187346255</v>
+      </c>
       <c r="C145">
-        <v>141.9421187346255</v>
+        <v>146.7540231280814</v>
       </c>
       <c r="D145">
-        <v>146.7540231280814</v>
-      </c>
-      <c r="E145">
         <v>147.7820500945872</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146" s="2">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>42370</v>
       </c>
+      <c r="B146">
+        <v>134.7404747913608</v>
+      </c>
       <c r="C146">
-        <v>134.7404747913608</v>
+        <v>147.4949438119149</v>
       </c>
       <c r="D146">
-        <v>147.4949438119149</v>
-      </c>
-      <c r="E146">
         <v>147.1924370642224</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147" s="2">
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>42401</v>
       </c>
+      <c r="B147">
+        <v>134.2245915684086</v>
+      </c>
       <c r="C147">
-        <v>134.2245915684086</v>
+        <v>146.6250634414022</v>
       </c>
       <c r="D147">
-        <v>146.6250634414022</v>
-      </c>
-      <c r="E147">
         <v>146.6074351198115</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148" s="2">
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>42430</v>
       </c>
+      <c r="B148">
+        <v>150.101639329048</v>
+      </c>
       <c r="C148">
-        <v>150.101639329048</v>
+        <v>146.7944934372408</v>
       </c>
       <c r="D148">
-        <v>146.7944934372408</v>
-      </c>
-      <c r="E148">
         <v>146.068977194877</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149" s="2">
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>42461</v>
       </c>
+      <c r="B149">
+        <v>153.241380594024</v>
+      </c>
       <c r="C149">
-        <v>153.241380594024</v>
+        <v>145.2677332158528</v>
       </c>
       <c r="D149">
-        <v>145.2677332158528</v>
-      </c>
-      <c r="E149">
         <v>145.6119839021639</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150" s="2">
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>42491</v>
       </c>
+      <c r="B150">
+        <v>163.533300189347</v>
+      </c>
       <c r="C150">
-        <v>163.533300189347</v>
+        <v>144.2521296026839</v>
       </c>
       <c r="D150">
-        <v>144.2521296026839</v>
-      </c>
-      <c r="E150">
         <v>145.2611510763243</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151" s="2">
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>42522</v>
       </c>
+      <c r="B151">
+        <v>153.6516969111608</v>
+      </c>
       <c r="C151">
-        <v>153.6516969111608</v>
+        <v>144.3139811705814</v>
       </c>
       <c r="D151">
-        <v>144.3139811705814</v>
-      </c>
-      <c r="E151">
         <v>145.0323404070786</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152" s="2">
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>42552</v>
       </c>
+      <c r="B152">
+        <v>143.7377153826797</v>
+      </c>
       <c r="C152">
-        <v>143.7377153826797</v>
+        <v>144.6689804556719</v>
       </c>
       <c r="D152">
-        <v>144.6689804556719</v>
-      </c>
-      <c r="E152">
         <v>144.9296859656176</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153" s="2">
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>42583</v>
       </c>
+      <c r="B153">
+        <v>143.671996273198</v>
+      </c>
       <c r="C153">
-        <v>143.671996273198</v>
+        <v>145.2155173557935</v>
       </c>
       <c r="D153">
-        <v>145.2155173557935</v>
-      </c>
-      <c r="E153">
         <v>144.9496338594624</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154" s="2">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>42614</v>
       </c>
+      <c r="B154">
+        <v>142.0032294173488</v>
+      </c>
       <c r="C154">
-        <v>142.0032294173488</v>
+        <v>145.2932372565914</v>
       </c>
       <c r="D154">
-        <v>145.2932372565914</v>
-      </c>
-      <c r="E154">
         <v>145.0834143364733</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155" s="2">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>42644</v>
       </c>
+      <c r="B155">
+        <v>141.1325389666154</v>
+      </c>
       <c r="C155">
-        <v>141.1325389666154</v>
+        <v>144.6204333231488</v>
       </c>
       <c r="D155">
-        <v>144.6204333231488</v>
-      </c>
-      <c r="E155">
         <v>145.3207126032229</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156" s="2">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>42675</v>
       </c>
+      <c r="B156">
+        <v>144.9398570255785</v>
+      </c>
       <c r="C156">
-        <v>144.9398570255785</v>
+        <v>146.0419444746379</v>
       </c>
       <c r="D156">
-        <v>146.0419444746379</v>
-      </c>
-      <c r="E156">
         <v>145.6487858087175</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157" s="2">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>42705</v>
       </c>
+      <c r="B157">
+        <v>142.5929331069368</v>
+      </c>
       <c r="C157">
-        <v>142.5929331069368</v>
+        <v>146.9828961750906</v>
       </c>
       <c r="D157">
-        <v>146.9828961750906</v>
-      </c>
-      <c r="E157">
         <v>146.0582144561844</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" s="2">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>42736</v>
       </c>
+      <c r="B158">
+        <v>136.5058443777179</v>
+      </c>
       <c r="C158">
-        <v>136.5058443777179</v>
+        <v>146.8830864579195</v>
       </c>
       <c r="D158">
-        <v>146.8830864579195</v>
-      </c>
-      <c r="E158">
         <v>146.5379229148879</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" s="2">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>42767</v>
       </c>
+      <c r="B159">
+        <v>131.843542275363</v>
+      </c>
       <c r="C159">
-        <v>131.843542275363</v>
+        <v>146.3298826463181</v>
       </c>
       <c r="D159">
-        <v>146.3298826463181</v>
-      </c>
-      <c r="E159">
         <v>147.0780406195329</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160" s="2">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>42795</v>
       </c>
+      <c r="B160">
+        <v>151.9468279806249</v>
+      </c>
       <c r="C160">
-        <v>151.9468279806249</v>
+        <v>147.5210844266402</v>
       </c>
       <c r="D160">
-        <v>147.5210844266402</v>
-      </c>
-      <c r="E160">
         <v>147.6679686084484</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" s="2">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>42826</v>
       </c>
+      <c r="B161">
+        <v>153.196525163585</v>
+      </c>
       <c r="C161">
-        <v>153.196525163585</v>
+        <v>147.1717259730049</v>
       </c>
       <c r="D161">
-        <v>147.1717259730049</v>
-      </c>
-      <c r="E161">
         <v>148.2916996486631</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" s="2">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>42856</v>
       </c>
+      <c r="B162">
+        <v>167.5672098508254</v>
+      </c>
       <c r="C162">
-        <v>167.5672098508254</v>
+        <v>147.4859724117588</v>
       </c>
       <c r="D162">
-        <v>147.4859724117588</v>
-      </c>
-      <c r="E162">
         <v>148.9268262628203</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163" s="2">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>42887</v>
       </c>
+      <c r="B163">
+        <v>159.4413223709983</v>
+      </c>
       <c r="C163">
-        <v>159.4413223709983</v>
+        <v>150.1366678815548</v>
       </c>
       <c r="D163">
-        <v>150.1366678815548</v>
-      </c>
-      <c r="E163">
         <v>149.5418504776672</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164" s="2">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>42917</v>
       </c>
+      <c r="B164">
+        <v>149.9425706806799</v>
+      </c>
       <c r="C164">
-        <v>149.9425706806799</v>
+        <v>150.1348605280599</v>
       </c>
       <c r="D164">
-        <v>150.1348605280599</v>
-      </c>
-      <c r="E164">
         <v>150.1007510415084</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165" s="2">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>42948</v>
       </c>
+      <c r="B165">
+        <v>148.8841045787466</v>
+      </c>
       <c r="C165">
-        <v>148.8841045787466</v>
+        <v>150.2950947167424</v>
       </c>
       <c r="D165">
-        <v>150.2950947167424</v>
-      </c>
-      <c r="E165">
         <v>150.5628909452863</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166" s="2">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>42979</v>
       </c>
+      <c r="B166">
+        <v>146.9810347120839</v>
+      </c>
       <c r="C166">
-        <v>146.9810347120839</v>
+        <v>151.8720728259327</v>
       </c>
       <c r="D166">
-        <v>151.8720728259327</v>
-      </c>
-      <c r="E166">
         <v>150.8857994335851</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167" s="2">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>43009</v>
       </c>
+      <c r="B167">
+        <v>148.9577125405673</v>
+      </c>
       <c r="C167">
-        <v>148.9577125405673</v>
+        <v>151.525373460553</v>
       </c>
       <c r="D167">
-        <v>151.525373460553</v>
-      </c>
-      <c r="E167">
         <v>151.0350885587154</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168" s="2">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>43040</v>
       </c>
+      <c r="B168">
+        <v>151.9466344881008</v>
+      </c>
       <c r="C168">
-        <v>151.9466344881008</v>
+        <v>152.6377212070104</v>
       </c>
       <c r="D168">
-        <v>152.6377212070104</v>
-      </c>
-      <c r="E168">
         <v>150.984608737835</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169" s="2">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>43070</v>
       </c>
+      <c r="B169">
+        <v>146.9935456100958</v>
+      </c>
       <c r="C169">
-        <v>146.9935456100958</v>
+        <v>152.2133322632003</v>
       </c>
       <c r="D169">
-        <v>152.2133322632003</v>
-      </c>
-      <c r="E169">
         <v>150.721223485853</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170" s="2">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>43101</v>
       </c>
+      <c r="B170">
+        <v>143.0020841239074</v>
+      </c>
       <c r="C170">
-        <v>143.0020841239074</v>
+        <v>152.2118906789779</v>
       </c>
       <c r="D170">
-        <v>152.2118906789779</v>
-      </c>
-      <c r="E170">
         <v>150.2507776628398</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171" s="2">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>43132</v>
       </c>
+      <c r="B171">
+        <v>138.8197449410226</v>
+      </c>
       <c r="C171">
-        <v>138.8197449410226</v>
+        <v>152.2058338278934</v>
       </c>
       <c r="D171">
-        <v>152.2058338278934</v>
-      </c>
-      <c r="E171">
         <v>149.5927952862103</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172" s="2">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>43160</v>
       </c>
+      <c r="B172">
+        <v>155.7444493730321</v>
+      </c>
       <c r="C172">
-        <v>155.7444493730321</v>
+        <v>151.909073268075</v>
       </c>
       <c r="D172">
-        <v>151.909073268075</v>
-      </c>
-      <c r="E172">
         <v>148.7824645790138</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" s="2">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>43191</v>
       </c>
+      <c r="B173">
+        <v>153.299541136288</v>
+      </c>
       <c r="C173">
-        <v>153.299541136288</v>
+        <v>147.0730661815558</v>
       </c>
       <c r="D173">
-        <v>147.0730661815558</v>
-      </c>
-      <c r="E173">
         <v>147.8640324273817</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174" s="2">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>43221</v>
       </c>
+      <c r="B174">
+        <v>159.6120928366543</v>
+      </c>
       <c r="C174">
-        <v>159.6120928366543</v>
+        <v>143.639867765234</v>
       </c>
       <c r="D174">
-        <v>143.639867765234</v>
-      </c>
-      <c r="E174">
         <v>146.8881744630034</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175" s="2">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>43252</v>
       </c>
+      <c r="B175">
+        <v>149.0149490274899</v>
+      </c>
       <c r="C175">
-        <v>149.0149490274899</v>
+        <v>142.6363279551259</v>
       </c>
       <c r="D175">
-        <v>142.6363279551259</v>
-      </c>
-      <c r="E175">
         <v>145.9083966404886</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176" s="2">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>43282</v>
       </c>
+      <c r="B176">
+        <v>145.6313249380234</v>
+      </c>
       <c r="C176">
-        <v>145.6313249380234</v>
+        <v>143.5197923672349</v>
       </c>
       <c r="D176">
-        <v>143.5197923672349</v>
-      </c>
-      <c r="E176">
         <v>144.9729848181963</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177" s="2">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>43313</v>
       </c>
+      <c r="B177">
+        <v>146.1530598291316</v>
+      </c>
       <c r="C177">
-        <v>146.1530598291316</v>
+        <v>146.2638405432994</v>
       </c>
       <c r="D177">
-        <v>146.2638405432994</v>
-      </c>
-      <c r="E177">
         <v>144.1217942322537</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178" s="2">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>43344</v>
       </c>
+      <c r="B178">
+        <v>137.7497591698863</v>
+      </c>
       <c r="C178">
-        <v>137.7497591698863</v>
+        <v>142.9432234567125</v>
       </c>
       <c r="D178">
-        <v>142.9432234567125</v>
-      </c>
-      <c r="E178">
         <v>143.3832936141335</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179" s="2">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>43374</v>
       </c>
+      <c r="B179">
+        <v>142.9652400022151</v>
+      </c>
       <c r="C179">
-        <v>142.9652400022151</v>
+        <v>144.2532141612124</v>
       </c>
       <c r="D179">
-        <v>144.2532141612124</v>
-      </c>
-      <c r="E179">
         <v>142.7770029638951</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180" s="2">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>43405</v>
       </c>
+      <c r="B180">
+        <v>140.9350818596134</v>
+      </c>
       <c r="C180">
-        <v>140.9350818596134</v>
+        <v>141.2503054395046</v>
       </c>
       <c r="D180">
-        <v>141.2503054395046</v>
-      </c>
-      <c r="E180">
         <v>142.3136852870613</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181" s="2">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>43435</v>
       </c>
+      <c r="B181">
+        <v>136.751056737791</v>
+      </c>
       <c r="C181">
-        <v>136.751056737791</v>
+        <v>141.7719497640029</v>
       </c>
       <c r="D181">
-        <v>141.7719497640029</v>
-      </c>
-      <c r="E181">
         <v>141.9958079239347</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182" s="2">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>43466</v>
       </c>
+      <c r="B182">
+        <v>134.8444887192949</v>
+      </c>
       <c r="C182">
-        <v>134.8444887192949</v>
+        <v>142.731223952406</v>
       </c>
       <c r="D182">
-        <v>142.731223952406</v>
-      </c>
-      <c r="E182">
         <v>141.8183067203425</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183" s="2">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>43497</v>
       </c>
+      <c r="B183">
+        <v>132.3344098633955</v>
+      </c>
       <c r="C183">
-        <v>132.3344098633955</v>
+        <v>143.0244510506739</v>
       </c>
       <c r="D183">
-        <v>143.0244510506739</v>
-      </c>
-      <c r="E183">
         <v>141.7700757564584</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184" s="2">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>43525</v>
       </c>
+      <c r="B184">
+        <v>144.8580710545846</v>
+      </c>
       <c r="C184">
-        <v>144.8580710545846</v>
+        <v>141.3693646586358</v>
       </c>
       <c r="D184">
-        <v>141.3693646586358</v>
-      </c>
-      <c r="E184">
         <v>141.8355080766401</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185" s="2">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>43556</v>
       </c>
+      <c r="B185">
+        <v>151.419146260986</v>
+      </c>
       <c r="C185">
-        <v>151.419146260986</v>
+        <v>142.053930077206</v>
       </c>
       <c r="D185">
-        <v>142.053930077206</v>
-      </c>
-      <c r="E185">
         <v>141.9960576424264</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186" s="2">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>43586</v>
       </c>
+      <c r="B186">
+        <v>163.8833665833208</v>
+      </c>
       <c r="C186">
-        <v>163.8833665833208</v>
+        <v>142.0689695603504</v>
       </c>
       <c r="D186">
-        <v>142.0689695603504</v>
-      </c>
-      <c r="E186">
         <v>142.231735416666</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187" s="2">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>43617</v>
       </c>
+      <c r="B187">
+        <v>149.6084433371171</v>
+      </c>
       <c r="C187">
-        <v>149.6084433371171</v>
+        <v>141.5658470963836</v>
       </c>
       <c r="D187">
-        <v>141.5658470963836</v>
-      </c>
-      <c r="E187">
         <v>142.5224920668309</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188" s="2">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>43647</v>
       </c>
+      <c r="B188">
+        <v>146.4624279864978</v>
+      </c>
       <c r="C188">
-        <v>146.4624279864978</v>
+        <v>143.2431839370415</v>
       </c>
       <c r="D188">
-        <v>143.2431839370415</v>
-      </c>
-      <c r="E188">
         <v>142.8494662870283</v>
       </c>
     </row>
